--- a/Documentación/Requerimientos de Cliente.xlsx
+++ b/Documentación/Requerimientos de Cliente.xlsx
@@ -126,9 +126,6 @@
     <t>REQ-20</t>
   </si>
   <si>
-    <t>El dispositivo deberá poder medir señales con frecuencias hasta 1MHz</t>
-  </si>
-  <si>
     <t>El dispositivo deberá poder generar señales alternas del tipo senoidal, cuadrada y triangular con amplitud hasta 10Vpp y frecuencia hasta 1MHz</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>Requerimientos de Cliente</t>
+  </si>
+  <si>
+    <t>El dispositivo deberá poder medir señales con frecuencias hasta 100KHz</t>
   </si>
 </sst>
 </file>
@@ -307,6 +307,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,12 +321,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,22 +630,22 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="133" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -659,222 +659,222 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>7</v>
       </c>
     </row>
